--- a/機械設計/_BOM/CU-SAS002.xlsx
+++ b/機械設計/_BOM/CU-SAS002.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51D8E27-CB44-43AA-A08C-869AFC9B5AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7B301C-603F-47FF-9353-72384A9FB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{9169827C-64E3-473A-8865-40248F252642}"/>
+    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{A6ED1731-D352-42D6-8412-CD520A5842D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{353BE805-F0AD-4590-8F99-907197396DE2}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{25495C1B-1C95-4E03-95F2-0C114AEACF78}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>種類</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>無</t>
-  </si>
-  <si>
-    <t>CU-SAS</t>
   </si>
   <si>
     <t>CU-AAS-P002</t>
@@ -356,8 +353,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82AD201C-3F09-4D38-88B6-4BB3F9C43F4F}">
-  <header guid="{82AD201C-3F09-4D38-88B6-4BB3F9C43F4F}" dateTime="2023-07-13T16:13:16" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EBAC2BC7-F2AC-4EE4-BD82-44FE2470FE13}">
+  <header guid="{EBAC2BC7-F2AC-4EE4-BD82-44FE2470FE13}" dateTime="2023-07-13T16:22:57" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -669,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7059275E-F0FA-4410-8824-8206E0F32B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C24A8B-C2F2-4A37-B4CC-481BCA4AE1E9}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -798,15 +795,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -837,18 +834,18 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -864,19 +861,19 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -884,18 +881,18 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -911,19 +908,19 @@
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -931,18 +928,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -958,19 +955,19 @@
         <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -978,17 +975,17 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -1001,10 +998,10 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="3">
         <v>580</v>
@@ -1022,18 +1019,18 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1044,7 +1041,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
@@ -1061,19 +1058,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -1081,10 +1078,10 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="3">
         <v>260</v>
@@ -1102,21 +1099,21 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1124,7 +1121,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
@@ -1132,36 +1129,36 @@
         <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -1169,10 +1166,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="3">
         <v>330</v>
@@ -1190,19 +1187,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1210,10 +1207,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="M12" s="3">
         <v>510</v>
@@ -1231,19 +1228,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
@@ -1251,10 +1248,10 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3">
         <v>280</v>
@@ -1272,19 +1269,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1">
         <v>8</v>
@@ -1292,10 +1289,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="3">
         <v>280</v>
@@ -1313,18 +1310,18 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
@@ -1332,7 +1329,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1346,17 +1343,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H16" s="1">
         <v>6</v>
@@ -1375,18 +1372,18 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>22</v>
@@ -1414,18 +1411,18 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -1437,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1455,18 +1452,18 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
@@ -1494,18 +1491,18 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
@@ -1517,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1535,18 +1532,18 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
@@ -1558,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1576,7 +1573,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{353BE805-F0AD-4590-8F99-907197396DE2}">
+    <customSheetView guid="{25495C1B-1C95-4E03-95F2-0C114AEACF78}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>

--- a/機械設計/_BOM/CU-SAS002.xlsx
+++ b/機械設計/_BOM/CU-SAS002.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7B301C-603F-47FF-9353-72384A9FB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE51171-0F08-4E8C-B36F-1C9F5A444B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{A6ED1731-D352-42D6-8412-CD520A5842D4}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{088BF2CD-2754-4D03-B66A-B6601EA785C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{25495C1B-1C95-4E03-95F2-0C114AEACF78}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{BB533FB0-1ACD-406A-A66C-E7AFA8C85DF3}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>種類</t>
   </si>
@@ -104,172 +104,193 @@
     <t>CU-AAS-P001</t>
   </si>
   <si>
+    <t>カウンターアーム</t>
+  </si>
+  <si>
+    <t>A2017</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CU-AAS-P002</t>
+  </si>
+  <si>
+    <t>ﾐﾗｰカウンターアーム</t>
+  </si>
+  <si>
+    <t>CU-AAS-P003</t>
+  </si>
+  <si>
+    <t>腕機構カバー</t>
+  </si>
+  <si>
+    <t>AR-M2</t>
+  </si>
+  <si>
+    <t>CU-AAS-P004</t>
+  </si>
+  <si>
+    <t>ﾐﾗｰ腕機構カバー</t>
+  </si>
+  <si>
+    <t>CU-SAS002</t>
+  </si>
+  <si>
+    <t>CU-SAS002-P001</t>
+  </si>
+  <si>
+    <t>最集段ピニオン</t>
+  </si>
+  <si>
+    <t>CU-SAS002-P002</t>
+  </si>
+  <si>
+    <t>腕機構内壁</t>
+  </si>
+  <si>
+    <t>CU-SAS002-P003</t>
+  </si>
+  <si>
+    <t>購入品</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+  </si>
+  <si>
+    <t>大喜多</t>
+  </si>
+  <si>
+    <t>DP-A3X20</t>
+  </si>
+  <si>
+    <t>ダウエルピン  大喜多A種 (φ3 x 20)</t>
+  </si>
+  <si>
+    <t>秋月電子</t>
+  </si>
+  <si>
+    <t>SS_10GL13</t>
+  </si>
+  <si>
+    <t>材料 &lt;指定なし&gt;</t>
+  </si>
+  <si>
+    <t>スイッチ</t>
+  </si>
+  <si>
+    <t>PJLS10-5</t>
+  </si>
+  <si>
+    <t>S45C</t>
+  </si>
+  <si>
+    <t>PART--DESC</t>
+  </si>
+  <si>
+    <t>プランジャ</t>
+  </si>
+  <si>
+    <t>CLJW6-8-12.0</t>
+  </si>
+  <si>
+    <t>MCナイロン</t>
+  </si>
+  <si>
+    <t>樹脂ｶﾗｰ</t>
+  </si>
+  <si>
+    <t>2日目</t>
+  </si>
+  <si>
+    <t>YDH3007C05F</t>
+  </si>
+  <si>
+    <t>未指定</t>
+  </si>
+  <si>
+    <t>小型ファン</t>
+  </si>
+  <si>
+    <t>FWSJW-D8-V6-T6.0</t>
+  </si>
+  <si>
+    <t>樹脂ﾜｯｼｬ</t>
+  </si>
+  <si>
+    <t>B6805ZZ</t>
+  </si>
+  <si>
+    <t>SUJ2</t>
+  </si>
+  <si>
+    <t>玉軸受</t>
+  </si>
+  <si>
+    <t>1日目</t>
+  </si>
+  <si>
+    <t>CBSTBR3-10</t>
+  </si>
+  <si>
+    <t>SCM435</t>
+  </si>
+  <si>
+    <t>超極低頭ﾎﾞﾙﾄ</t>
+  </si>
+  <si>
+    <t>CBSTBR3-6</t>
+  </si>
+  <si>
+    <t>CBSTBR2-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>SFHRW6-103.0-M3-N3</t>
   </si>
   <si>
-    <t>材料 &lt;指定なし&gt;</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>CU-AAS-P002</t>
-  </si>
-  <si>
     <t>SFRHH6-109.0-F2.5-P5-T2.5-M3</t>
   </si>
   <si>
-    <t>CU-SAS002</t>
-  </si>
-  <si>
-    <t>CU-SAS002-P001</t>
-  </si>
-  <si>
-    <t>最集段ピニオン</t>
-  </si>
-  <si>
-    <t>A2017</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>CU-SAS002-P002</t>
-  </si>
-  <si>
-    <t>腕機構内壁</t>
-  </si>
-  <si>
-    <t>CU-SAS002-P003</t>
-  </si>
-  <si>
-    <t>CU-SAS002-P004</t>
-  </si>
-  <si>
-    <t>MISUMI</t>
-  </si>
-  <si>
     <t>SFRMGH8-15.0-F2.8-P6-T4.9-M3</t>
   </si>
   <si>
     <t>回転軸</t>
   </si>
   <si>
-    <t>2日目</t>
-  </si>
-  <si>
-    <t>購入品</t>
-  </si>
-  <si>
-    <t>秋月電子</t>
-  </si>
-  <si>
-    <t>SS_10GL13</t>
-  </si>
-  <si>
-    <t>スイッチ</t>
-  </si>
-  <si>
-    <t>CLJW6-8-12.0</t>
-  </si>
-  <si>
-    <t>MCナイロン</t>
-  </si>
-  <si>
-    <t>樹脂ｶﾗｰ</t>
-  </si>
-  <si>
-    <t>YDH3007C05F</t>
-  </si>
-  <si>
-    <t>未指定</t>
-  </si>
-  <si>
-    <t>小型ファン</t>
-  </si>
-  <si>
-    <t>FWSJW-D8-V6-T6.0</t>
-  </si>
-  <si>
-    <t>樹脂ﾜｯｼｬ</t>
-  </si>
-  <si>
-    <t>B6805ZZ</t>
-  </si>
-  <si>
-    <t>SUJ2</t>
-  </si>
-  <si>
-    <t>玉軸受</t>
-  </si>
-  <si>
-    <t>1日目</t>
-  </si>
-  <si>
-    <t>CBSTBR3-10</t>
-  </si>
-  <si>
-    <t>SCM435</t>
-  </si>
-  <si>
-    <t>超極低頭ﾎﾞﾙﾄ</t>
-  </si>
-  <si>
-    <t>CBSTBR3-6</t>
-  </si>
-  <si>
-    <t>大喜多</t>
-  </si>
-  <si>
-    <t>DP-A3X20</t>
-  </si>
-  <si>
-    <t>ダウエルピン  大喜多A種 (φ3 x 20)</t>
+    <t>組立品</t>
+  </si>
+  <si>
+    <t>腕機構減速機</t>
+  </si>
+  <si>
+    <t>アームリンク中関節</t>
+  </si>
+  <si>
+    <t>組立品(組図を参照)</t>
+  </si>
+  <si>
+    <t>アームリンク駆動節</t>
+  </si>
+  <si>
+    <t>ロングロッド左</t>
+  </si>
+  <si>
+    <t>ロングロッド右</t>
   </si>
   <si>
     <t>ボルト類</t>
   </si>
   <si>
-    <t>六角穴付きボルト M3x20</t>
+    <t>六角穴付きボルト M3x5</t>
   </si>
   <si>
     <t>スチール</t>
-  </si>
-  <si>
-    <t>組立品</t>
-  </si>
-  <si>
-    <t>CGA75-RS380-4</t>
-  </si>
-  <si>
-    <t>腕機構減速機</t>
-  </si>
-  <si>
-    <t>CU-AAS001</t>
-  </si>
-  <si>
-    <t>アームリンク中関節</t>
-  </si>
-  <si>
-    <t>組立品(組図を参照)</t>
-  </si>
-  <si>
-    <t>CU-AAS002</t>
-  </si>
-  <si>
-    <t>アームリンク駆動節</t>
-  </si>
-  <si>
-    <t>CU-AAS003L</t>
-  </si>
-  <si>
-    <t>ロングロッド左</t>
-  </si>
-  <si>
-    <t>CU-AAS003R</t>
-  </si>
-  <si>
-    <t>ロングロッド右</t>
   </si>
 </sst>
 </file>
@@ -353,8 +374,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EBAC2BC7-F2AC-4EE4-BD82-44FE2470FE13}">
-  <header guid="{EBAC2BC7-F2AC-4EE4-BD82-44FE2470FE13}" dateTime="2023-07-13T16:22:57" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{72A32F87-2234-43DE-9F44-A9032500BE6D}">
+  <header guid="{72A32F87-2234-43DE-9F44-A9032500BE6D}" dateTime="2023-07-16T16:52:05" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -666,8 +687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C24A8B-C2F2-4A37-B4CC-481BCA4AE1E9}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C0AC6F-E926-427C-A0DF-EF2D62146A83}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,13 +803,21 @@
       <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -798,18 +827,18 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -821,20 +850,28 @@
       <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -861,19 +898,19 @@
         <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -881,15 +918,15 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>29</v>
@@ -908,19 +945,19 @@
         <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -928,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -936,10 +973,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -955,19 +992,19 @@
         <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -975,15 +1012,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
@@ -991,209 +1026,211 @@
         <v>22</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="3">
-        <v>580</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="3">
-        <v>260</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="3">
-        <v>330</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
@@ -1202,7 +1239,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1213,7 +1250,7 @@
         <v>54</v>
       </c>
       <c r="M12" s="3">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>23</v>
@@ -1228,13 +1265,15 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>55</v>
@@ -1243,59 +1282,63 @@
         <v>56</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="3">
-        <v>280</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M14" s="3">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>23</v>
@@ -1310,94 +1353,116 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H15" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="3">
+        <v>510</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="3">
+        <v>280</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="3">
+        <v>280</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,34 +1476,34 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="3">
+        <v>260</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,27 +1517,27 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1491,31 +1556,29 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -1532,34 +1595,40 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="3">
+        <v>580</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,9 +1640,239 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{25495C1B-1C95-4E03-95F2-0C114AEACF78}">
+    <customSheetView guid="{BB533FB0-1ACD-406A-A66C-E7AFA8C85DF3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
